--- a/files/output.xlsx
+++ b/files/output.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
-    <t>Spot Check Inventory 02/25/2022</t>
+    <t>Spot Check Inventory 02/27/2022</t>
   </si>
   <si>
     <t>SKU</t>

--- a/files/output.xlsx
+++ b/files/output.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
-    <t>Spot Check Inventory 02/27/2022</t>
+    <t>Spot Check Inventory 03/10/2022</t>
   </si>
   <si>
     <t>SKU</t>

--- a/files/output.xlsx
+++ b/files/output.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
-    <t>Spot Check Inventory 03/10/2022</t>
+    <t>Spot Check Inventory 03/16/2022</t>
   </si>
   <si>
     <t>SKU</t>
